--- a/datasets/my_control_vs_blebbistatin.xlsx
+++ b/datasets/my_control_vs_blebbistatin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grovesdixon/gitreps/Drerio_early_ethanol_RNAseq/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AE568C-2340-D641-B277-468EC889DB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DBCF00-9E71-1443-BB16-BABB9C98653B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14760" yWindow="780" windowWidth="18380" windowHeight="17160" xr2:uid="{A6CC1C88-E0E7-3549-9925-6E93440A1E98}"/>
   </bookViews>
